--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>22222</v>
+        <v>2222</v>
       </c>
       <c r="D3">
         <v>300</v>

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -105,7 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +406,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,8 +416,8 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -108,7 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +460,7 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="3">
         <v>43252</v>
@@ -476,9 +476,6 @@
       <c r="A3">
         <v>58515696</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="1">
         <v>2222</v>
       </c>
@@ -486,7 +483,7 @@
         <v>300</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>509</v>
       </c>
       <c r="F3" s="3">
         <v>43253</v>
@@ -508,14 +505,11 @@
       <c r="C4" s="1">
         <v>33333</v>
       </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
       <c r="E4">
-        <v>150</v>
+        <v>1059</v>
       </c>
       <c r="F4" s="3">
-        <v>43254</v>
+        <v>43259</v>
       </c>
       <c r="G4" s="3">
         <v>42522</v>
@@ -536,7 +530,7 @@
         <v>500</v>
       </c>
       <c r="E5">
-        <v>160</v>
+        <v>1609</v>
       </c>
       <c r="F5" s="3">
         <v>43256</v>

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="companycurrentstock_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -406,7 +404,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,28 +542,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -50,19 +50,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,27 +67,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA9A9A9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA9A9A9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9A9A9"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -102,11 +81,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,60 +381,60 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>58515696</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>11111</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>200</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1009</v>
       </c>
       <c r="F2" s="3">
@@ -471,16 +448,16 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>58515696</v>
       </c>
       <c r="C3" s="1">
         <v>2222</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>300</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>509</v>
       </c>
       <c r="F3" s="3">
@@ -494,16 +471,16 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>58515696</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>33333</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1059</v>
       </c>
       <c r="F4" s="3">
@@ -515,19 +492,19 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>58515696</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>44444</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1609</v>
       </c>
       <c r="F5" s="3">

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -378,142 +378,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
+        <v>42585</v>
+      </c>
+      <c r="B2" s="2">
         <v>58515696</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="2">
+        <v>1009</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
         <v>11111</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1009</v>
-      </c>
-      <c r="F2" s="3">
-        <v>43252</v>
       </c>
       <c r="G2" s="3">
         <v>42522</v>
       </c>
       <c r="H2" s="3">
-        <v>42530</v>
+        <v>43374</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
+        <v>42585</v>
+      </c>
+      <c r="B3" s="2">
         <v>58515696</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>509</v>
+      </c>
+      <c r="E3" s="2">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1">
         <v>2222</v>
-      </c>
-      <c r="D3" s="2">
-        <v>300</v>
-      </c>
-      <c r="E3" s="2">
-        <v>509</v>
-      </c>
-      <c r="F3" s="3">
-        <v>43253</v>
       </c>
       <c r="G3" s="3">
         <v>42522</v>
       </c>
       <c r="H3" s="3">
-        <v>42530</v>
+        <v>43253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
+        <v>42585</v>
+      </c>
+      <c r="B4" s="2">
         <v>58515696</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="2">
+        <v>1059</v>
+      </c>
+      <c r="E4" s="2">
+        <v>800</v>
+      </c>
+      <c r="F4" s="1">
         <v>33333</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1059</v>
-      </c>
-      <c r="F4" s="3">
-        <v>43259</v>
       </c>
       <c r="G4" s="3">
         <v>42522</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>43259</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
+        <v>42585</v>
+      </c>
+      <c r="B5" s="2">
         <v>58515696</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="2">
+        <v>1609</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
         <v>44444</v>
-      </c>
-      <c r="D5" s="2">
-        <v>500</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1609</v>
-      </c>
-      <c r="F5" s="3">
-        <v>43256</v>
       </c>
       <c r="G5" s="3">
         <v>42522</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>43256</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -25,22 +25,22 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Batch No</t>
-  </si>
-  <si>
     <t>Unrestricted Qty</t>
   </si>
   <si>
     <t>In Transit Qty</t>
   </si>
   <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Mfg. Date</t>
-  </si>
-  <si>
     <t>Date Data</t>
+  </si>
+  <si>
+    <t>Batch Mfg. Date</t>
+  </si>
+  <si>
+    <t>Batch Expiry Date</t>
+  </si>
+  <si>
+    <t>Batch</t>
   </si>
 </sst>
 </file>
@@ -79,11 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +382,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -392,14 +393,15 @@
     <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="2"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -408,19 +410,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,9 +455,6 @@
       <c r="A3" s="3">
         <v>42585</v>
       </c>
-      <c r="B3" s="2">
-        <v>58515696</v>
-      </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -487,15 +484,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
-        <v>1059</v>
-      </c>
       <c r="E4" s="2">
         <v>800</v>
       </c>
-      <c r="F4" s="1">
-        <v>33333</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="3">
         <v>42522</v>
       </c>

--- a/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
+++ b/public/assets/uploads/Uploads/company_current_stock/companycurrentstock_data.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Product SKU Code</t>
   </si>
   <si>
     <t>Product SKU Name</t>
-  </si>
-  <si>
-    <t>A1</t>
   </si>
   <si>
     <t>Unrestricted Qty</t>
@@ -47,9 +44,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -79,11 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -379,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,7 +394,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -410,115 +403,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3">
-        <v>42585</v>
-      </c>
-      <c r="B2" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1009</v>
-      </c>
-      <c r="E2" s="2">
-        <v>200</v>
-      </c>
-      <c r="F2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="G2" s="3">
-        <v>42522</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>42585</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>509</v>
-      </c>
-      <c r="E3" s="2">
-        <v>300</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2222</v>
-      </c>
-      <c r="G3" s="3">
-        <v>42522</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>42585</v>
-      </c>
-      <c r="B4" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>800</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3">
-        <v>42522</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>42585</v>
-      </c>
-      <c r="B5" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1609</v>
-      </c>
-      <c r="E5" s="2">
-        <v>500</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44444</v>
-      </c>
-      <c r="G5" s="3">
-        <v>42522</v>
-      </c>
-      <c r="H5" s="3">
-        <v>43256</v>
       </c>
     </row>
   </sheetData>
